--- a/Assets/StreamingAssets/levels/Debug.xlsx
+++ b/Assets/StreamingAssets/levels/Debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayi/Documents/GitHub/Project/Assets/StreamingAssets/levels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\GameJam_AMDYES\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7673FE8-661E-6B43-8A47-BF08371B9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B22B-6573-44C5-B754-3827F13D85BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="6700" windowWidth="28040" windowHeight="17440" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,9 +107,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,7 +147,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -246,7 +253,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,13 +405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -420,12 +427,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -434,13 +442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AEF038-7884-4C45-8363-3DD22CC55CD7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1">
         <v>1</v>
       </c>
@@ -448,7 +456,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="E6">
         <v>1</v>
       </c>
@@ -456,7 +472,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>1</v>
       </c>
@@ -465,6 +494,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/levels/Debug.xlsx
+++ b/Assets/StreamingAssets/levels/Debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\GameJam_AMDYES\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA9B22B-6573-44C5-B754-3827F13D85BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126231E-FCCD-4034-8DF5-7715E101620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
@@ -456,6 +456,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="4" spans="1:10">
       <c r="C4">
         <v>2</v>

--- a/Assets/StreamingAssets/levels/Debug.xlsx
+++ b/Assets/StreamingAssets/levels/Debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\GameJam_AMDYES\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5126231E-FCCD-4034-8DF5-7715E101620F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFD501-D1C7-4E1C-983F-B4236724FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
@@ -473,6 +473,9 @@
       </c>
     </row>
     <row r="6" spans="1:10">
+      <c r="A6">
+        <v>6</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>

--- a/Assets/StreamingAssets/levels/Debug.xlsx
+++ b/Assets/StreamingAssets/levels/Debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\GameJam_AMDYES\Assets\StreamingAssets\levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayi/Documents/GitHub/Project/Assets/StreamingAssets/levels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADFD501-D1C7-4E1C-983F-B4236724FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC041336-E77D-4546-9C01-FD366E22CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="10840" yWindow="4340" windowWidth="19400" windowHeight="11480" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Width</t>
   </si>
@@ -46,22 +46,28 @@
   <si>
     <t>NextLevel</t>
   </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>BgTest.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -107,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36E9A83-1242-0D41-9838-6F50983CC2CF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,9 +433,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -443,12 +457,12 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -456,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>5</v>
       </c>
@@ -464,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
@@ -472,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -483,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D7">
         <v>4</v>
       </c>
@@ -491,12 +505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>

--- a/Assets/StreamingAssets/levels/Debug.xlsx
+++ b/Assets/StreamingAssets/levels/Debug.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayi/Documents/GitHub/Project/Assets/StreamingAssets/levels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBstudio\Documents\GitHub\Project\Assets\StreamingAssets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC041336-E77D-4546-9C01-FD366E22CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A22D6B-5A79-47F6-ADE8-2E5D4DB1F9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="4340" windowWidth="19400" windowHeight="11480" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
+    <workbookView xWindow="12300" yWindow="2796" windowWidth="16452" windowHeight="12192" activeTab="1" xr2:uid="{C2226A68-D7B0-4D43-ABB2-DEB1751B0BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop" sheetId="1" r:id="rId1"/>
@@ -61,13 +61,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -97,7 +97,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -153,7 +153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -259,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,9 +415,9 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -433,12 +433,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -457,12 +457,12 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>5</v>
       </c>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>2</v>
       </c>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D7">
         <v>4</v>
       </c>
@@ -505,12 +505,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
